--- a/datasets/extra/postal-codes+lookup.xlsx
+++ b/datasets/extra/postal-codes+lookup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="630" windowWidth="19440" windowHeight="9465"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$C$103</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="206">
   <si>
     <t>M1B</t>
   </si>
@@ -632,13 +632,16 @@
   </si>
   <si>
     <t>East Toronto (Business Reply Mail Processing Centre @ 969 Eastern)</t>
+  </si>
+  <si>
+    <t>M5N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,7 +761,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -793,7 +795,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,19 +970,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -992,7 +993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>197</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>179</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>194</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>198</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -1674,432 +1675,443 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C64">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>157</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>65</v>
-      </c>
-      <c r="C67">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
       </c>
       <c r="C68">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>185</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>70</v>
-      </c>
-      <c r="C72">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
       </c>
       <c r="C73">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>109</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>72</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>195</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>73</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>199</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>74</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>181</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>116</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>76</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>122</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>128</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>78</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>135</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>79</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>141</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>80</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>147</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>81</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>82</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>158</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>203</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>204</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>165</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>86</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>170</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>87</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>175</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>88</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>201</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>89</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>202</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>90</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>91</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>191</v>
-      </c>
-      <c r="B94" t="s">
-        <v>92</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>129</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>94</v>
-      </c>
-      <c r="C96">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
       </c>
       <c r="C97">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>142</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>96</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>148</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>97</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>154</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>98</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>166</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>99</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>171</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>100</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>32</v>
       </c>
     </row>
